--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.430785</v>
+        <v>32.00264033333334</v>
       </c>
       <c r="H2">
-        <v>91.292355</v>
+        <v>96.00792100000001</v>
       </c>
       <c r="I2">
-        <v>0.03899521584805473</v>
+        <v>0.02419001798940439</v>
       </c>
       <c r="J2">
-        <v>0.03927806696289605</v>
+        <v>0.02433952891158457</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N2">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O2">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P2">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q2">
-        <v>1024.85116231883</v>
+        <v>1182.533488614214</v>
       </c>
       <c r="R2">
-        <v>9223.660460869469</v>
+        <v>10642.80139752793</v>
       </c>
       <c r="S2">
-        <v>0.006284890474731019</v>
+        <v>0.004209343513774353</v>
       </c>
       <c r="T2">
-        <v>0.006605718759130381</v>
+        <v>0.004322095433706797</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.430785</v>
+        <v>32.00264033333334</v>
       </c>
       <c r="H3">
-        <v>91.292355</v>
+        <v>96.00792100000001</v>
       </c>
       <c r="I3">
-        <v>0.03899521584805473</v>
+        <v>0.02419001798940439</v>
       </c>
       <c r="J3">
-        <v>0.03927806696289605</v>
+        <v>0.02433952891158457</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>155.582533</v>
       </c>
       <c r="O3">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P3">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q3">
-        <v>1578.166203826135</v>
+        <v>1659.683948582655</v>
       </c>
       <c r="R3">
-        <v>14203.49583443522</v>
+        <v>14937.1555372439</v>
       </c>
       <c r="S3">
-        <v>0.009678089957499239</v>
+        <v>0.005907807204740359</v>
       </c>
       <c r="T3">
-        <v>0.01017213277492161</v>
+        <v>0.006066054352483338</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.430785</v>
+        <v>32.00264033333334</v>
       </c>
       <c r="H4">
-        <v>91.292355</v>
+        <v>96.00792100000001</v>
       </c>
       <c r="I4">
-        <v>0.03899521584805473</v>
+        <v>0.02419001798940439</v>
       </c>
       <c r="J4">
-        <v>0.03927806696289605</v>
+        <v>0.02433952891158457</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N4">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O4">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P4">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q4">
-        <v>1291.39262286111</v>
+        <v>2071.782246846298</v>
       </c>
       <c r="R4">
-        <v>11622.53360574999</v>
+        <v>18646.04022161668</v>
       </c>
       <c r="S4">
-        <v>0.007919453568451669</v>
+        <v>0.007374711369007476</v>
       </c>
       <c r="T4">
-        <v>0.008323722300255701</v>
+        <v>0.007572251166622529</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.430785</v>
+        <v>32.00264033333334</v>
       </c>
       <c r="H5">
-        <v>91.292355</v>
+        <v>96.00792100000001</v>
       </c>
       <c r="I5">
-        <v>0.03899521584805473</v>
+        <v>0.02419001798940439</v>
       </c>
       <c r="J5">
-        <v>0.03927806696289605</v>
+        <v>0.02433952891158457</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N5">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O5">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P5">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q5">
-        <v>794.8563036483299</v>
+        <v>409.1268584424666</v>
       </c>
       <c r="R5">
-        <v>4769.13782188998</v>
+        <v>2454.7611506548</v>
       </c>
       <c r="S5">
-        <v>0.004874449086125127</v>
+        <v>0.001456327033844794</v>
       </c>
       <c r="T5">
-        <v>0.003415518525273983</v>
+        <v>0.0009968909090561757</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.430785</v>
+        <v>32.00264033333334</v>
       </c>
       <c r="H6">
-        <v>91.292355</v>
+        <v>96.00792100000001</v>
       </c>
       <c r="I6">
-        <v>0.03899521584805473</v>
+        <v>0.02419001798940439</v>
       </c>
       <c r="J6">
-        <v>0.03927806696289605</v>
+        <v>0.02433952891158457</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.86295166666665</v>
+        <v>46.01464833333333</v>
       </c>
       <c r="N6">
-        <v>164.588855</v>
+        <v>138.043945</v>
       </c>
       <c r="O6">
-        <v>0.262553560445503</v>
+        <v>0.216693880522677</v>
       </c>
       <c r="P6">
-        <v>0.2739690477507385</v>
+        <v>0.2211315210441077</v>
       </c>
       <c r="Q6">
-        <v>1669.522686633725</v>
+        <v>1472.590240676483</v>
       </c>
       <c r="R6">
-        <v>15025.70417970352</v>
+        <v>13253.31216608835</v>
       </c>
       <c r="S6">
-        <v>0.01023833276124768</v>
+        <v>0.005241828868037403</v>
       </c>
       <c r="T6">
-        <v>0.01076097460331438</v>
+        <v>0.005382237049715732</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>300.848889</v>
       </c>
       <c r="I7">
-        <v>0.1285065695172663</v>
+        <v>0.07580145430919519</v>
       </c>
       <c r="J7">
-        <v>0.1294386896674413</v>
+        <v>0.07626995934880827</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N7">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O7">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P7">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q7">
-        <v>3377.34012419746</v>
+        <v>3705.568067189794</v>
       </c>
       <c r="R7">
-        <v>30396.06111777714</v>
+        <v>33350.11260470815</v>
       </c>
       <c r="S7">
-        <v>0.02071150773588335</v>
+        <v>0.01319033165543049</v>
       </c>
       <c r="T7">
-        <v>0.02176877954053035</v>
+        <v>0.0135436492722581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>300.848889</v>
       </c>
       <c r="I8">
-        <v>0.1285065695172663</v>
+        <v>0.07580145430919519</v>
       </c>
       <c r="J8">
-        <v>0.1294386896674413</v>
+        <v>0.07626995934880827</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>155.582533</v>
       </c>
       <c r="O8">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P8">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q8">
         <v>5200.759133428427</v>
@@ -948,10 +948,10 @@
         <v>46806.83220085584</v>
       </c>
       <c r="S8">
-        <v>0.03189360830220343</v>
+        <v>0.01851261037068319</v>
       </c>
       <c r="T8">
-        <v>0.03352169898668574</v>
+        <v>0.01900849110729339</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>300.848889</v>
       </c>
       <c r="I9">
-        <v>0.1285065695172663</v>
+        <v>0.07580145430919519</v>
       </c>
       <c r="J9">
-        <v>0.1294386896674413</v>
+        <v>0.07626995934880827</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N9">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O9">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P9">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q9">
-        <v>4255.712713847298</v>
+        <v>6492.103783953746</v>
       </c>
       <c r="R9">
-        <v>38301.41442462568</v>
+        <v>58428.93405558372</v>
       </c>
       <c r="S9">
-        <v>0.02609811968982254</v>
+        <v>0.02310927784866384</v>
       </c>
       <c r="T9">
-        <v>0.02743036485778521</v>
+        <v>0.02372828540581918</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>300.848889</v>
       </c>
       <c r="I10">
-        <v>0.1285065695172663</v>
+        <v>0.07580145430919519</v>
       </c>
       <c r="J10">
-        <v>0.1294386896674413</v>
+        <v>0.07626995934880827</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N10">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O10">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P10">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q10">
-        <v>2619.404832608894</v>
+        <v>1282.033394124599</v>
       </c>
       <c r="R10">
-        <v>15716.42899565336</v>
+        <v>7692.200364747591</v>
       </c>
       <c r="S10">
-        <v>0.01606347642196118</v>
+        <v>0.004563523150895763</v>
       </c>
       <c r="T10">
-        <v>0.01125565173214774</v>
+        <v>0.003123841442663365</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>300.848889</v>
       </c>
       <c r="I11">
-        <v>0.1285065695172663</v>
+        <v>0.07580145430919519</v>
       </c>
       <c r="J11">
-        <v>0.1294386896674413</v>
+        <v>0.07626995934880827</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.86295166666665</v>
+        <v>46.01464833333333</v>
       </c>
       <c r="N11">
-        <v>164.588855</v>
+        <v>138.043945</v>
       </c>
       <c r="O11">
-        <v>0.262553560445503</v>
+        <v>0.216693880522677</v>
       </c>
       <c r="P11">
-        <v>0.2739690477507385</v>
+        <v>0.2211315210441077</v>
       </c>
       <c r="Q11">
-        <v>5501.81935205912</v>
+        <v>4614.485276269678</v>
       </c>
       <c r="R11">
-        <v>49516.37416853209</v>
+        <v>41530.36748642711</v>
       </c>
       <c r="S11">
-        <v>0.03373985736739582</v>
+        <v>0.01642571128352191</v>
       </c>
       <c r="T11">
-        <v>0.03546219455029225</v>
+        <v>0.01686569212077424</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>338.5338643333333</v>
+        <v>473.968811</v>
       </c>
       <c r="H12">
-        <v>1015.601593</v>
+        <v>1421.906433</v>
       </c>
       <c r="I12">
-        <v>0.4338107318478445</v>
+        <v>0.3582615042098434</v>
       </c>
       <c r="J12">
-        <v>0.4369573703896444</v>
+        <v>0.360475806319893</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N12">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O12">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P12">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q12">
-        <v>11401.17891622913</v>
+        <v>17513.67967543515</v>
       </c>
       <c r="R12">
-        <v>102610.6102460622</v>
+        <v>157623.1170789163</v>
       </c>
       <c r="S12">
-        <v>0.06991762648654806</v>
+        <v>0.0623416542989466</v>
       </c>
       <c r="T12">
-        <v>0.07348675028355658</v>
+        <v>0.06401154443525155</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>338.5338643333333</v>
+        <v>473.968811</v>
       </c>
       <c r="H13">
-        <v>1015.601593</v>
+        <v>1421.906433</v>
       </c>
       <c r="I13">
-        <v>0.4338107318478445</v>
+        <v>0.3582615042098434</v>
       </c>
       <c r="J13">
-        <v>0.4369573703896444</v>
+        <v>0.360475806319893</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>155.582533</v>
       </c>
       <c r="O13">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P13">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q13">
-        <v>17556.65203975279</v>
+        <v>24580.42272612609</v>
       </c>
       <c r="R13">
-        <v>158009.8683577751</v>
+        <v>221223.8045351348</v>
       </c>
       <c r="S13">
-        <v>0.1076660096897876</v>
+        <v>0.08749641677319586</v>
       </c>
       <c r="T13">
-        <v>0.1131620961078055</v>
+        <v>0.08984010503387224</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>338.5338643333333</v>
+        <v>473.968811</v>
       </c>
       <c r="H14">
-        <v>1015.601593</v>
+        <v>1421.906433</v>
       </c>
       <c r="I14">
-        <v>0.4338107318478445</v>
+        <v>0.3582615042098434</v>
       </c>
       <c r="J14">
-        <v>0.4369573703896444</v>
+        <v>0.360475806319893</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N14">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O14">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P14">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q14">
-        <v>14366.37717327142</v>
+        <v>30683.72352908198</v>
       </c>
       <c r="R14">
-        <v>129297.3945594428</v>
+        <v>276153.5117617379</v>
       </c>
       <c r="S14">
-        <v>0.08810167795330778</v>
+        <v>0.109221712415895</v>
       </c>
       <c r="T14">
-        <v>0.0925990530951832</v>
+        <v>0.1121473367401876</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>338.5338643333333</v>
+        <v>473.968811</v>
       </c>
       <c r="H15">
-        <v>1015.601593</v>
+        <v>1421.906433</v>
       </c>
       <c r="I15">
-        <v>0.4338107318478445</v>
+        <v>0.3582615042098434</v>
       </c>
       <c r="J15">
-        <v>0.4369573703896444</v>
+        <v>0.360475806319893</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N15">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O15">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P15">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q15">
-        <v>8842.551254059943</v>
+        <v>6059.292877849355</v>
       </c>
       <c r="R15">
-        <v>53055.30752435965</v>
+        <v>36355.75726709613</v>
       </c>
       <c r="S15">
-        <v>0.05422686551208009</v>
+        <v>0.02156864513268359</v>
       </c>
       <c r="T15">
-        <v>0.03799667622978144</v>
+        <v>0.01476425675946252</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>338.5338643333333</v>
+        <v>473.968811</v>
       </c>
       <c r="H16">
-        <v>1015.601593</v>
+        <v>1421.906433</v>
       </c>
       <c r="I16">
-        <v>0.4338107318478445</v>
+        <v>0.3582615042098434</v>
       </c>
       <c r="J16">
-        <v>0.4369573703896444</v>
+        <v>0.360475806319893</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.86295166666665</v>
+        <v>46.01464833333333</v>
       </c>
       <c r="N16">
-        <v>164.588855</v>
+        <v>138.043945</v>
       </c>
       <c r="O16">
-        <v>0.262553560445503</v>
+        <v>0.216693880522677</v>
       </c>
       <c r="P16">
-        <v>0.2739690477507385</v>
+        <v>0.2211315210441077</v>
       </c>
       <c r="Q16">
-        <v>18572.96703644955</v>
+        <v>21809.50815913313</v>
       </c>
       <c r="R16">
-        <v>167156.703328046</v>
+        <v>196285.5734321982</v>
       </c>
       <c r="S16">
-        <v>0.1138985522061209</v>
+        <v>0.07763307558912237</v>
       </c>
       <c r="T16">
-        <v>0.1197127946733176</v>
+        <v>0.07971256335111913</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.8589635</v>
+        <v>24.3798835</v>
       </c>
       <c r="H17">
-        <v>33.717927</v>
+        <v>48.759767</v>
       </c>
       <c r="I17">
-        <v>0.02160374504492658</v>
+        <v>0.01842816137361988</v>
       </c>
       <c r="J17">
-        <v>0.01450696495403192</v>
+        <v>0.01236137337687614</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N17">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O17">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P17">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q17">
-        <v>567.7779373245129</v>
+        <v>900.8640658075426</v>
       </c>
       <c r="R17">
-        <v>3406.667623947078</v>
+        <v>5405.184394845256</v>
       </c>
       <c r="S17">
-        <v>0.003481893060431662</v>
+        <v>0.003206713677633933</v>
       </c>
       <c r="T17">
-        <v>0.002439756789085886</v>
+        <v>0.002195072699254756</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.8589635</v>
+        <v>24.3798835</v>
       </c>
       <c r="H18">
-        <v>33.717927</v>
+        <v>48.759767</v>
       </c>
       <c r="I18">
-        <v>0.02160374504492658</v>
+        <v>0.01842816137361988</v>
       </c>
       <c r="J18">
-        <v>0.01450696495403192</v>
+        <v>0.01236137337687614</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>155.582533</v>
       </c>
       <c r="O18">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P18">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q18">
-        <v>874.3200816948485</v>
+        <v>1264.361343058302</v>
       </c>
       <c r="R18">
-        <v>5245.920490169091</v>
+        <v>7586.168058349812</v>
       </c>
       <c r="S18">
-        <v>0.005361759985593411</v>
+        <v>0.004500617758154473</v>
       </c>
       <c r="T18">
-        <v>0.003756976477812566</v>
+        <v>0.003080781187173332</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.8589635</v>
+        <v>24.3798835</v>
       </c>
       <c r="H19">
-        <v>33.717927</v>
+        <v>48.759767</v>
       </c>
       <c r="I19">
-        <v>0.02160374504492658</v>
+        <v>0.01842816137361988</v>
       </c>
       <c r="J19">
-        <v>0.01450696495403192</v>
+        <v>0.01236137337687614</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N19">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O19">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P19">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q19">
-        <v>715.4446095618209</v>
+        <v>1578.301330433381</v>
       </c>
       <c r="R19">
-        <v>4292.667657370926</v>
+        <v>9469.807982600287</v>
       </c>
       <c r="S19">
-        <v>0.004387457591070077</v>
+        <v>0.005618117822461579</v>
       </c>
       <c r="T19">
-        <v>0.003074284378886861</v>
+        <v>0.003845736879876742</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.8589635</v>
+        <v>24.3798835</v>
       </c>
       <c r="H20">
-        <v>33.717927</v>
+        <v>48.759767</v>
       </c>
       <c r="I20">
-        <v>0.02160374504492658</v>
+        <v>0.01842816137361988</v>
       </c>
       <c r="J20">
-        <v>0.01450696495403192</v>
+        <v>0.01236137337687614</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N20">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O20">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P20">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q20">
-        <v>440.3584531569629</v>
+        <v>311.6763192554183</v>
       </c>
       <c r="R20">
-        <v>1761.433812627852</v>
+        <v>1246.705277021673</v>
       </c>
       <c r="S20">
-        <v>0.002700494227329064</v>
+        <v>0.001109442316422099</v>
       </c>
       <c r="T20">
-        <v>0.001261487934037147</v>
+        <v>0.0005062933135485489</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.8589635</v>
+        <v>24.3798835</v>
       </c>
       <c r="H21">
-        <v>33.717927</v>
+        <v>48.759767</v>
       </c>
       <c r="I21">
-        <v>0.02160374504492658</v>
+        <v>0.01842816137361988</v>
       </c>
       <c r="J21">
-        <v>0.01450696495403192</v>
+        <v>0.01236137337687614</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.86295166666665</v>
+        <v>46.01464833333333</v>
       </c>
       <c r="N21">
-        <v>164.588855</v>
+        <v>138.043945</v>
       </c>
       <c r="O21">
-        <v>0.262553560445503</v>
+        <v>0.216693880522677</v>
       </c>
       <c r="P21">
-        <v>0.2739690477507385</v>
+        <v>0.2211315210441077</v>
       </c>
       <c r="Q21">
-        <v>924.9324996505972</v>
+        <v>1121.831765660136</v>
       </c>
       <c r="R21">
-        <v>5549.594997903583</v>
+        <v>6730.990593960816</v>
       </c>
       <c r="S21">
-        <v>0.005672140180502367</v>
+        <v>0.003993269798947799</v>
       </c>
       <c r="T21">
-        <v>0.003974459374209463</v>
+        <v>0.002733489297022758</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>294.2656913333333</v>
+        <v>692.3345543333334</v>
       </c>
       <c r="H22">
-        <v>882.797074</v>
+        <v>2077.003663</v>
       </c>
       <c r="I22">
-        <v>0.3770837377419078</v>
+        <v>0.5233188621179371</v>
       </c>
       <c r="J22">
-        <v>0.3798189080259864</v>
+        <v>0.5265533320428379</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N22">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O22">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P22">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q22">
-        <v>9910.310752533025</v>
+        <v>25582.539043543</v>
       </c>
       <c r="R22">
-        <v>89192.79677279723</v>
+        <v>230242.8513918869</v>
       </c>
       <c r="S22">
-        <v>0.06077489096981904</v>
+        <v>0.09106354773513553</v>
       </c>
       <c r="T22">
-        <v>0.06387730048400232</v>
+        <v>0.09350278554250321</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>294.2656913333333</v>
+        <v>692.3345543333334</v>
       </c>
       <c r="H23">
-        <v>882.797074</v>
+        <v>2077.003663</v>
       </c>
       <c r="I23">
-        <v>0.3770837377419078</v>
+        <v>0.5233188621179371</v>
       </c>
       <c r="J23">
-        <v>0.3798189080259864</v>
+        <v>0.5265533320428379</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>155.582533</v>
       </c>
       <c r="O23">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P23">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q23">
-        <v>15260.86721087872</v>
+        <v>35905.05454886871</v>
       </c>
       <c r="R23">
-        <v>137347.8048979084</v>
+        <v>323145.4909398184</v>
       </c>
       <c r="S23">
-        <v>0.0935871300109315</v>
+        <v>0.1278075504264228</v>
       </c>
       <c r="T23">
-        <v>0.09836452406162927</v>
+        <v>0.1312310169706204</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>294.2656913333333</v>
+        <v>692.3345543333334</v>
       </c>
       <c r="H24">
-        <v>882.797074</v>
+        <v>2077.003663</v>
       </c>
       <c r="I24">
-        <v>0.3770837377419078</v>
+        <v>0.5233188621179371</v>
       </c>
       <c r="J24">
-        <v>0.3798189080259864</v>
+        <v>0.5265533320428379</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N24">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O24">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P24">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q24">
-        <v>12487.76667933447</v>
+        <v>44820.25306680821</v>
       </c>
       <c r="R24">
-        <v>112389.9001140102</v>
+        <v>403382.2776012738</v>
       </c>
       <c r="S24">
-        <v>0.07658111610668815</v>
+        <v>0.1595420707734758</v>
       </c>
       <c r="T24">
-        <v>0.08049039474832566</v>
+        <v>0.1638155815313511</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>294.2656913333333</v>
+        <v>692.3345543333334</v>
       </c>
       <c r="H25">
-        <v>882.797074</v>
+        <v>2077.003663</v>
       </c>
       <c r="I25">
-        <v>0.3770837377419078</v>
+        <v>0.5233188621179371</v>
       </c>
       <c r="J25">
-        <v>0.3798189080259864</v>
+        <v>0.5265533320428379</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N25">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O25">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P25">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q25">
-        <v>7686.26046629207</v>
+        <v>8850.915369958751</v>
       </c>
       <c r="R25">
-        <v>46117.56279775242</v>
+        <v>53105.4922197525</v>
       </c>
       <c r="S25">
-        <v>0.04713592272423289</v>
+        <v>0.03150569819985542</v>
       </c>
       <c r="T25">
-        <v>0.03302806418242434</v>
+        <v>0.02156640877288736</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>294.2656913333333</v>
+        <v>692.3345543333334</v>
       </c>
       <c r="H26">
-        <v>882.797074</v>
+        <v>2077.003663</v>
       </c>
       <c r="I26">
-        <v>0.3770837377419078</v>
+        <v>0.5233188621179371</v>
       </c>
       <c r="J26">
-        <v>0.3798189080259864</v>
+        <v>0.5265533320428379</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>54.86295166666665</v>
+        <v>46.01464833333333</v>
       </c>
       <c r="N26">
-        <v>164.588855</v>
+        <v>138.043945</v>
       </c>
       <c r="O26">
-        <v>0.262553560445503</v>
+        <v>0.216693880522677</v>
       </c>
       <c r="P26">
-        <v>0.2739690477507385</v>
+        <v>0.2211315210441077</v>
       </c>
       <c r="Q26">
-        <v>16144.28440077892</v>
+        <v>31857.53104666339</v>
       </c>
       <c r="R26">
-        <v>145298.5596070102</v>
+        <v>286717.7794199705</v>
       </c>
       <c r="S26">
-        <v>0.09900467793023621</v>
+        <v>0.1133999949830476</v>
       </c>
       <c r="T26">
-        <v>0.1040586245496049</v>
+        <v>0.1164375392254759</v>
       </c>
     </row>
   </sheetData>
